--- a/Team-Data/2013-14/12-27-2013-14.xlsx
+++ b/Team-Data/2013-14/12-27-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>10</v>
@@ -759,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>22</v>
@@ -798,19 +865,19 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY2" t="n">
         <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
         <v>21</v>
@@ -947,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -980,19 +1047,19 @@
         <v>30</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
       </c>
       <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>19</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
         <v>19</v>
       </c>
       <c r="G4" t="n">
-        <v>0.345</v>
+        <v>0.321</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1054,19 +1121,19 @@
         <v>0.444</v>
       </c>
       <c r="L4" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.372</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="P4" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="Q4" t="n">
         <v>0.758</v>
@@ -1075,16 +1142,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>31</v>
+        <v>30.6</v>
       </c>
       <c r="T4" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
         <v>6.8</v>
@@ -1093,25 +1160,25 @@
         <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z4" t="n">
         <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.8</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>24</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,16 +1196,16 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>5</v>
@@ -1147,13 +1214,13 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1162,7 +1229,7 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1171,13 +1238,13 @@
         <v>27</v>
       </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
       </c>
       <c r="BA4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -1212,49 +1279,49 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.467</v>
+        <v>0.483</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M5" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="N5" t="n">
-        <v>0.317</v>
+        <v>0.313</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P5" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R5" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S5" t="n">
         <v>32.6</v>
@@ -1263,7 +1330,7 @@
         <v>43.3</v>
       </c>
       <c r="U5" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="V5" t="n">
         <v>13.4</v>
@@ -1281,28 +1348,28 @@
         <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>12</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1323,16 +1390,16 @@
         <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>6</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1344,10 +1411,10 @@
         <v>26</v>
       </c>
       <c r="AV5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1356,16 +1423,16 @@
         <v>25</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
         <v>29</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
         <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
         <v>30</v>
@@ -1505,7 +1572,7 @@
         <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1529,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="AW6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX6" t="n">
         <v>14</v>
@@ -1538,7 +1605,7 @@
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1547,7 +1614,7 @@
         <v>30</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
@@ -1669,31 +1736,31 @@
         <v>4</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>8</v>
@@ -1714,16 +1781,16 @@
         <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1881,13 +1948,13 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
         <v>27</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -1940,43 +2007,43 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
         <v>14</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.519</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M9" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O9" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
         <v>0.722</v>
@@ -1985,46 +2052,46 @@
         <v>12.9</v>
       </c>
       <c r="S9" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T9" t="n">
-        <v>46.5</v>
+        <v>46.6</v>
       </c>
       <c r="U9" t="n">
         <v>21.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="AA9" t="n">
         <v>21.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.1</v>
+        <v>100.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -2039,19 +2106,19 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
       </c>
       <c r="AM9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
@@ -2063,13 +2130,13 @@
         <v>5</v>
       </c>
       <c r="AS9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
         <v>13</v>
@@ -2084,16 +2151,16 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.452</v>
+        <v>0.467</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2140,94 +2207,94 @@
         <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L10" t="n">
         <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O10" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.666</v>
+        <v>0.67</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
         <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
         <v>5.3</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA10" t="n">
         <v>20.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.5</v>
+        <v>100.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2236,7 +2303,7 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ10" t="n">
         <v>30</v>
@@ -2251,13 +2318,13 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
         <v>14</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>9</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.581</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38.7</v>
+        <v>38.5</v>
       </c>
       <c r="J11" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K11" t="n">
-        <v>0.462</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
         <v>9.5</v>
       </c>
       <c r="M11" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="N11" t="n">
         <v>0.403</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R11" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S11" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="T11" t="n">
-        <v>46.2</v>
+        <v>45.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V11" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>103</v>
+        <v>102.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,22 +2461,22 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL11" t="n">
         <v>3</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2418,19 +2485,19 @@
         <v>20</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>24</v>
       </c>
       <c r="AR11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
@@ -2445,19 +2512,19 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>4.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
@@ -2597,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2624,19 +2691,19 @@
         <v>17</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH13" t="n">
         <v>24</v>
@@ -2770,19 +2837,19 @@
         <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2800,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>18</v>
@@ -2809,10 +2876,10 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>5.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>6</v>
@@ -2946,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -2976,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2985,10 +3052,10 @@
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -3032,28 +3099,28 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.433</v>
+        <v>0.448</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L15" t="n">
         <v>9.4</v>
@@ -3062,31 +3129,31 @@
         <v>25.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="O15" t="n">
         <v>16.1</v>
       </c>
       <c r="P15" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.731</v>
+        <v>0.732</v>
       </c>
       <c r="R15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>42.7</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
         <v>6.9</v>
@@ -3101,25 +3168,25 @@
         <v>20.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC15" t="n">
         <v>-4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>27</v>
@@ -3128,10 +3195,10 @@
         <v>17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>4</v>
@@ -3146,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3158,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
         <v>15</v>
@@ -3173,13 +3240,13 @@
         <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -3292,25 +3359,25 @@
         <v>-3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
         <v>18</v>
       </c>
-      <c r="AF16" t="n">
-        <v>17</v>
-      </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>15</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3331,19 +3398,19 @@
         <v>27</v>
       </c>
       <c r="AQ16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR16" t="n">
         <v>10</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3355,7 +3422,7 @@
         <v>28</v>
       </c>
       <c r="AY16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -3396,55 +3463,55 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="n">
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.759</v>
+        <v>0.786</v>
       </c>
       <c r="H17" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>76.59999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.511</v>
+        <v>0.514</v>
       </c>
       <c r="L17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.377</v>
+        <v>0.379</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="S17" t="n">
         <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="U17" t="n">
         <v>24.1</v>
@@ -3459,10 +3526,10 @@
         <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA17" t="n">
         <v>21.2</v>
@@ -3471,10 +3538,10 @@
         <v>104.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3483,13 +3550,13 @@
         <v>4</v>
       </c>
       <c r="AG17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI17" t="n">
         <v>5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>6</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3498,13 +3565,13 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,19 +3595,19 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>1</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -3578,73 +3645,73 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.207</v>
+        <v>0.214</v>
       </c>
       <c r="H18" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I18" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.419</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.356</v>
       </c>
       <c r="O18" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.782</v>
+        <v>0.785</v>
       </c>
       <c r="R18" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S18" t="n">
         <v>30.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
         <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="W18" t="n">
         <v>6.9</v>
       </c>
       <c r="X18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20.4</v>
@@ -3653,10 +3720,10 @@
         <v>92.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-7.8</v>
+        <v>-7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
         <v>28</v>
@@ -3683,16 +3750,16 @@
         <v>20</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>6</v>
@@ -3701,16 +3768,16 @@
         <v>16</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3722,10 +3789,10 @@
         <v>18</v>
       </c>
       <c r="AZ18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0.483</v>
+        <v>0.464</v>
       </c>
       <c r="H19" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J19" t="n">
-        <v>89.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M19" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="N19" t="n">
         <v>0.334</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="P19" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R19" t="n">
         <v>13.9</v>
       </c>
       <c r="S19" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T19" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U19" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V19" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
         <v>9.1</v>
@@ -3823,37 +3890,37 @@
         <v>2.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.1</v>
+        <v>105.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
       </c>
       <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI19" t="n">
         <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>12</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3865,13 +3932,13 @@
         <v>13</v>
       </c>
       <c r="AM19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3886,13 +3953,13 @@
         <v>15</v>
       </c>
       <c r="AT19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3901,7 +3968,7 @@
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3910,10 +3977,10 @@
         <v>3</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
         <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.481</v>
+        <v>0.462</v>
       </c>
       <c r="H20" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I20" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J20" t="n">
         <v>87.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.388</v>
+        <v>0.384</v>
       </c>
       <c r="O20" t="n">
-        <v>17.7</v>
+        <v>18</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.768</v>
+        <v>0.77</v>
       </c>
       <c r="R20" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>44</v>
+        <v>43.7</v>
       </c>
       <c r="U20" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="W20" t="n">
         <v>9</v>
@@ -4005,37 +4072,37 @@
         <v>6.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z20" t="n">
         <v>21.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ20" t="n">
         <v>4</v>
@@ -4050,13 +4117,13 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ20" t="n">
         <v>10</v>
@@ -4065,37 +4132,37 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
         <v>11</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20" t="n">
         <v>4</v>
       </c>
       <c r="AX20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.31</v>
+        <v>0.321</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.354</v>
+        <v>0.349</v>
       </c>
       <c r="O21" t="n">
         <v>14</v>
@@ -4163,64 +4230,64 @@
         <v>18.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.763</v>
+        <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
         <v>28.5</v>
       </c>
       <c r="T21" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V21" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y21" t="n">
         <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA21" t="n">
         <v>19.3</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-4.2</v>
+        <v>-3.9</v>
       </c>
       <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH21" t="n">
         <v>9</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4232,7 +4299,7 @@
         <v>4</v>
       </c>
       <c r="AN21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4244,7 +4311,7 @@
         <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4253,31 +4320,31 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -4306,100 +4373,100 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.828</v>
+        <v>0.821</v>
       </c>
       <c r="H22" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>38.9</v>
+        <v>39.1</v>
       </c>
       <c r="J22" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467</v>
+        <v>0.469</v>
       </c>
       <c r="L22" t="n">
         <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P22" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.824</v>
       </c>
       <c r="R22" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S22" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="T22" t="n">
         <v>47.3</v>
       </c>
       <c r="U22" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.7</v>
+        <v>106.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
@@ -4414,7 +4481,7 @@
         <v>24</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>3</v>
@@ -4423,10 +4490,10 @@
         <v>5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
@@ -4435,10 +4502,10 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>13</v>
@@ -4450,13 +4517,13 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -4488,37 +4555,37 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
         <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>0.31</v>
+        <v>0.286</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
       </c>
       <c r="I23" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="M23" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O23" t="n">
         <v>15.8</v>
@@ -4527,28 +4594,28 @@
         <v>20.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.755</v>
+        <v>0.759</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V23" t="n">
         <v>15.5</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
@@ -4557,43 +4624,43 @@
         <v>20.6</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.5</v>
+        <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH23" t="n">
         <v>9</v>
       </c>
-      <c r="AE23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>10</v>
-      </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM23" t="n">
         <v>15</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>16</v>
       </c>
       <c r="AN23" t="n">
         <v>13</v>
@@ -4605,19 +4672,19 @@
         <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4626,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AY23" t="n">
         <v>24</v>
@@ -4635,13 +4702,13 @@
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB23" t="n">
         <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH24" t="n">
         <v>1</v>
@@ -4772,7 +4839,7 @@
         <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4793,13 +4860,13 @@
         <v>10</v>
       </c>
       <c r="AS24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4814,7 +4881,7 @@
         <v>29</v>
       </c>
       <c r="AZ24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -4852,67 +4919,67 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>0.607</v>
+        <v>0.63</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>38.2</v>
       </c>
       <c r="J25" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.464</v>
       </c>
       <c r="L25" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.377</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
         <v>17.6</v>
       </c>
       <c r="P25" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U25" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="V25" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y25" t="n">
         <v>4</v>
@@ -4921,19 +4988,19 @@
         <v>21.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.2</v>
+        <v>103.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF25" t="n">
         <v>6</v>
@@ -4942,16 +5009,16 @@
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>15</v>
@@ -4972,7 +5039,7 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4981,13 +5048,13 @@
         <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV25" t="n">
         <v>23</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX25" t="n">
         <v>10</v>
@@ -4999,13 +5066,13 @@
         <v>21</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5145,19 +5212,19 @@
         <v>2</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR26" t="n">
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>3</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -5216,100 +5283,100 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.321</v>
+        <v>0.296</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J27" t="n">
         <v>83</v>
       </c>
       <c r="K27" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>20.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="P27" t="n">
         <v>25.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R27" t="n">
         <v>11.3</v>
       </c>
       <c r="S27" t="n">
-        <v>30.9</v>
+        <v>30.5</v>
       </c>
       <c r="T27" t="n">
-        <v>42.1</v>
+        <v>41.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
         <v>3.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA27" t="n">
         <v>22.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5339,19 +5406,19 @@
         <v>12</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>22</v>
       </c>
       <c r="AU27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -5476,16 +5543,16 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>27</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5509,7 +5576,7 @@
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
@@ -5521,10 +5588,10 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,7 +5603,7 @@
         <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -5580,64 +5647,64 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.444</v>
+        <v>0.423</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>83.40000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L29" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="N29" t="n">
         <v>0.342</v>
       </c>
       <c r="O29" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.777</v>
+        <v>0.781</v>
       </c>
       <c r="R29" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U29" t="n">
         <v>18.7</v>
       </c>
       <c r="V29" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
@@ -5646,28 +5713,28 @@
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA29" t="n">
         <v>22.4</v>
       </c>
-      <c r="AA29" t="n">
-        <v>22.6</v>
-      </c>
       <c r="AB29" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>5</v>
@@ -5682,7 +5749,7 @@
         <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
         <v>13</v>
@@ -5694,46 +5761,46 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ29" t="n">
         <v>7</v>
       </c>
       <c r="AR29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV29" t="n">
         <v>11</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
       </c>
       <c r="BB29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -5762,58 +5829,58 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.281</v>
+        <v>0.258</v>
       </c>
       <c r="H30" t="n">
         <v>48.3</v>
       </c>
       <c r="I30" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J30" t="n">
-        <v>82.3</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M30" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
         <v>15.8</v>
       </c>
       <c r="P30" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
       </c>
       <c r="S30" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V30" t="n">
         <v>15.4</v>
@@ -5822,43 +5889,43 @@
         <v>7.1</v>
       </c>
       <c r="X30" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA30" t="n">
         <v>20.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>93.09999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-8.5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG30" t="n">
         <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
@@ -5879,7 +5946,7 @@
         <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR30" t="n">
         <v>9</v>
@@ -5894,19 +5961,19 @@
         <v>25</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY30" t="n">
         <v>19</v>
       </c>
       <c r="AZ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA30" t="n">
         <v>14</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" t="n">
         <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>0.462</v>
+        <v>0.48</v>
       </c>
       <c r="H31" t="n">
         <v>49.2</v>
@@ -5977,61 +6044,61 @@
         <v>0.392</v>
       </c>
       <c r="O31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P31" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3</v>
+        <v>31.6</v>
       </c>
       <c r="T31" t="n">
-        <v>42.2</v>
+        <v>42.5</v>
       </c>
       <c r="U31" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="V31" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
         <v>30</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -6043,13 +6110,13 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>8</v>
       </c>
       <c r="AM31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
         <v>4</v>
@@ -6058,46 +6125,46 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS31" t="n">
         <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
         <v>22</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AY31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-27-2013-14</t>
+          <t>2013-12-27</t>
         </is>
       </c>
     </row>
